--- a/перерисовал графики 2_6 2_3.xlsx
+++ b/перерисовал графики 2_6 2_3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E566A684-3A20-476F-81B1-3F9887EAD1AA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DA4913-8D6E-4404-9804-90C2BB863797}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1176" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2352" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -103,10 +103,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -114,10 +111,18 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>18% Cr+12% Ni</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="ru-RU">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -136,10 +141,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -291,10 +293,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -302,7 +301,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1600"/>
+                  <a:rPr lang="ru-RU" sz="1600">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Флюенс</a:t>
                 </a:r>
               </a:p>
@@ -323,10 +326,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -359,7 +359,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -408,10 +408,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -419,7 +416,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1600"/>
+                  <a:rPr lang="ru-RU" sz="1600">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Деформация, %</a:t>
                 </a:r>
               </a:p>
@@ -440,10 +441,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -476,7 +474,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -494,6 +492,7 @@
         <c:crossAx val="2043140944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -740,10 +739,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -751,7 +747,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1600"/>
+                  <a:rPr lang="ru-RU" sz="1600">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Флюенс </a:t>
                 </a:r>
               </a:p>
@@ -772,10 +772,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -808,7 +805,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -857,10 +854,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -868,7 +862,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1600"/>
+                  <a:rPr lang="ru-RU" sz="1600">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Деформация, %</a:t>
                 </a:r>
               </a:p>
@@ -889,10 +887,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -925,7 +920,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1019,10 +1014,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1030,10 +1022,18 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>18% Cr+10% Ni</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="ru-RU">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1052,10 +1052,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1201,10 +1198,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1212,7 +1206,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1600"/>
+                  <a:rPr lang="ru-RU" sz="1600">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Доза облучения, сна</a:t>
                 </a:r>
               </a:p>
@@ -1233,10 +1231,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1269,12 +1264,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1318,10 +1310,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1329,12 +1318,24 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1600"/>
-                  <a:t>Предел ползучести, МПа</a:t>
+                  <a:rPr lang="ru-RU" sz="1600">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Предел текучести, МПа</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3565893542985647E-2"/>
+              <c:y val="0.2083485557153332"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1350,10 +1351,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1386,12 +1384,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1478,12 +1473,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1511,12 +1503,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1668,10 +1657,7 @@
                 <a:pPr>
                   <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1679,7 +1665,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1600"/>
+                  <a:rPr lang="ru-RU"/>
                   <a:t>Флюенс</a:t>
                 </a:r>
               </a:p>
@@ -1700,10 +1686,7 @@
               <a:pPr>
                 <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1736,12 +1719,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1786,10 +1766,7 @@
                 <a:pPr>
                   <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1797,7 +1774,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1600"/>
+                  <a:rPr lang="ru-RU"/>
                   <a:t>Предел ползучести, МПа</a:t>
                 </a:r>
               </a:p>
@@ -1818,10 +1795,7 @@
               <a:pPr>
                 <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1854,12 +1828,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1912,7 +1883,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1600">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="ru-RU"/>
     </a:p>
@@ -1948,10 +1923,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1981,10 +1953,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2136,10 +2105,7 @@
                 <a:pPr>
                   <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2168,10 +2134,7 @@
               <a:pPr>
                 <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2204,12 +2167,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2253,10 +2213,7 @@
                 <a:pPr>
                   <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2265,7 +2222,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU" sz="1600"/>
-                  <a:t>Предел ползучести, МПа</a:t>
+                  <a:t>Предел текучести, МПа</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2285,10 +2242,7 @@
               <a:pPr>
                 <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2321,12 +2275,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2379,7 +2330,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="ru-RU"/>
     </a:p>
@@ -5177,15 +5132,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
+      <xdr:colOff>543791</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47452</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>414251</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>112223</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5213,15 +5168,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:colOff>55418</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>149975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>383078</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>47105</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5248,16 +5203,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>161751</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600636</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>170717</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>98611</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>439272</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>35860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5285,15 +5240,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>228127</xdr:colOff>
+      <xdr:colOff>228126</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>96493</xdr:rowOff>
+      <xdr:rowOff>96492</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>75727</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>109804</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5323,13 +5278,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>502024</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>114646</xdr:rowOff>
+      <xdr:rowOff>114647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>234834</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>170331</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5622,8 +5577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V69" sqref="V69"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X38" sqref="X38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
